--- a/ImportData.xlsx
+++ b/ImportData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eTaskAutomationTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vunguyen\Documents\GitHub\eTask-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179134A0-7171-48E2-A59E-D66BFC37CA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B655D4F-6877-452B-89D2-B654DDD1CEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="3396" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3972" yWindow="3396" windowWidth="17280" windowHeight="8964" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="235">
   <si>
     <t>ID</t>
   </si>
@@ -450,9 +450,6 @@
     <t>testSyncVSTS</t>
   </si>
   <si>
-    <t>testSyncJira</t>
-  </si>
-  <si>
     <t>testSyncPlanner</t>
   </si>
   <si>
@@ -534,9 +531,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>15 mins</t>
-  </si>
-  <si>
     <t>dailyTime</t>
   </si>
   <si>
@@ -760,6 +754,12 @@
   </si>
   <si>
     <t>Total tasks succeeded/failed to update</t>
+  </si>
+  <si>
+    <t>Test VSTS 2</t>
+  </si>
+  <si>
+    <t>testSyncVSTS2</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -1273,13 +1273,13 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>108</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1298,10 +1298,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1314,21 +1314,21 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="32">
         <v>4</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G4" s="32">
         <v>0</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" s="31">
         <v>15</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G5" s="31">
         <v>1</v>
@@ -1374,40 +1374,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
         <v>97</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
         <v>97</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1516,7 +1516,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
@@ -1533,7 +1533,7 @@
         <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1544,7 +1544,7 @@
         <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -1601,18 +1601,18 @@
         <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1639,13 +1639,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1656,7 +1656,7 @@
         <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1734,35 +1734,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1778,18 +1778,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>96</v>
@@ -1811,7 +1811,7 @@
         <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1822,7 +1822,7 @@
         <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1833,7 +1833,7 @@
         <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1849,35 +1849,35 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
         <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2070,10 +2070,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
         <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
         <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
         <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -2166,7 +2166,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
         <v>146</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
         <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>83</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -2229,7 +2229,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -2849,7 +2849,7 @@
         <v>68</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>27</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="7" spans="1:12" s="29" customFormat="1">
       <c r="B7" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>63</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="8" spans="1:12" s="29" customFormat="1">
       <c r="B8" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>27</v>
@@ -2961,12 +2961,12 @@
         <v>105</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="29" customFormat="1">
       <c r="B9" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>63</v>
@@ -2987,21 +2987,21 @@
         <v>105</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="26" customFormat="1">
       <c r="B10" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F10" s="27">
         <v>44267</v>
@@ -3013,12 +3013,12 @@
         <v>105</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>63</v>
@@ -3027,7 +3027,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" s="10">
         <v>44267</v>
@@ -3039,12 +3039,12 @@
         <v>105</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>63</v>
@@ -3068,12 +3068,12 @@
         <v>104</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="26" customFormat="1">
       <c r="B13" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>63</v>
@@ -3082,7 +3082,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F13" s="27">
         <v>44267</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="14" spans="1:12" s="29" customFormat="1">
       <c r="B14" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>63</v>
@@ -3105,7 +3105,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F14" s="10">
         <v>44267</v>
@@ -3120,21 +3120,21 @@
         <v>104</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="26" customFormat="1">
       <c r="B15" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F15" s="27">
         <v>44267</v>
@@ -3149,12 +3149,12 @@
         <v>104</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>63</v>
@@ -3163,7 +3163,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="10">
         <v>44267</v>
@@ -3178,12 +3178,12 @@
         <v>104</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="29" customFormat="1">
       <c r="B17" s="29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>63</v>
@@ -3192,7 +3192,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F17" s="10">
         <v>44267</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="18" spans="2:9" s="29" customFormat="1">
       <c r="B18" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>63</v>
@@ -3216,7 +3216,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F18" s="10">
         <v>44267</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="19" spans="2:9" s="29" customFormat="1">
       <c r="B19" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>63</v>
@@ -3240,7 +3240,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F19" s="10">
         <v>44267</v>
@@ -3255,16 +3255,16 @@
     </row>
     <row r="20" spans="2:9" s="26" customFormat="1">
       <c r="B20" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F20" s="27">
         <v>44267</v>
@@ -3276,7 +3276,7 @@
         <v>101</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3334,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>42</v>
@@ -3368,7 +3368,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>42</v>
@@ -3379,13 +3379,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>42</v>
@@ -3408,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C86E9-E42C-4E89-AEFC-B293AB2283A2}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3430,7 +3430,7 @@
         <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3438,10 +3438,10 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D2" s="24">
         <v>0.20833333333333334</v>
@@ -3452,34 +3452,32 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="24"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{3101433B-6E09-4C4F-8A63-D7E7CA5CB109}">
-      <formula1>"Jira, VSTS, Planner"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{2FDBE247-CBA0-4865-88C1-22C27DFFFDA7}">
       <formula1>"None, 15 mins, 30 mins, 1 hour, 2 hours, Daily"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3521,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>4</v>
@@ -3545,7 +3543,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>11</v>
@@ -3553,7 +3551,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="B2" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>63</v>
@@ -3562,10 +3560,10 @@
         <v>113</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G2" s="25">
         <v>44267</v>
@@ -3574,7 +3572,7 @@
         <v>44285</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J2" s="13"/>
       <c r="M2" s="13" t="s">
@@ -3586,7 +3584,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>63</v>
@@ -3595,10 +3593,10 @@
         <v>113</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G3" s="25">
         <v>44267</v>
@@ -3607,7 +3605,7 @@
         <v>44285</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J3" s="13"/>
       <c r="M3" s="13" t="s">
@@ -3619,7 +3617,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>63</v>
@@ -3628,10 +3626,10 @@
         <v>113</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G4" s="25">
         <v>44267</v>
@@ -3664,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093518A7-609F-4B41-B648-5F0D112D3DF3}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3761,7 +3759,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3794,7 +3792,15 @@
         <v>46</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3926,7 +3932,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="13"/>
       <c r="J3" s="12" t="s">
@@ -4051,7 +4057,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4092,7 +4098,7 @@
         <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -4126,7 +4132,7 @@
         <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -4160,7 +4166,7 @@
         <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -4194,7 +4200,7 @@
         <v>68</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -4222,7 +4228,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
@@ -4253,7 +4259,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="C7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
@@ -4279,10 +4285,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="C8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -4300,7 +4306,7 @@
         <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K8" t="s">
         <v>104</v>
@@ -4309,7 +4315,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="C9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -4330,23 +4336,23 @@
         <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G10" s="25">
         <v>44267</v>
@@ -4358,7 +4364,7 @@
         <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K10" t="s">
         <v>104</v>
@@ -4367,7 +4373,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="C11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
         <v>63</v>
@@ -4376,7 +4382,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G11" s="25">
         <v>44267</v>
@@ -4388,7 +4394,7 @@
         <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K11" t="s">
         <v>104</v>
@@ -4397,7 +4403,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="C12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
@@ -4425,7 +4431,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
         <v>63</v>
@@ -4434,7 +4440,7 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G13" s="25">
         <v>44267</v>
@@ -4450,7 +4456,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
@@ -4459,7 +4465,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G14" s="25">
         <v>44267</v>
@@ -4475,16 +4481,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="C15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G15" s="25">
         <v>44267</v>
@@ -4500,7 +4506,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -4509,7 +4515,7 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G16" s="25">
         <v>44267</v>
@@ -4525,7 +4531,7 @@
     </row>
     <row r="17" spans="3:10">
       <c r="C17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
         <v>63</v>
@@ -4534,7 +4540,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G17" s="25">
         <v>44267</v>
@@ -4549,7 +4555,7 @@
     </row>
     <row r="18" spans="3:10">
       <c r="C18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
         <v>63</v>
@@ -4558,7 +4564,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G18" s="25">
         <v>44267</v>
@@ -4573,7 +4579,7 @@
     </row>
     <row r="19" spans="3:10">
       <c r="C19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
         <v>63</v>
@@ -4582,7 +4588,7 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G19" s="25">
         <v>44267</v>
@@ -4597,16 +4603,16 @@
     </row>
     <row r="20" spans="3:10">
       <c r="C20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G20" s="25">
         <v>44267</v>
@@ -4618,7 +4624,7 @@
         <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D556C2F9-6388-4690-97AD-49F161546318}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4676,7 +4682,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>22</v>
@@ -4691,10 +4697,10 @@
         <v>23</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>24</v>
@@ -4705,7 +4711,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>26</v>
@@ -4720,10 +4726,10 @@
         <v>28</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>24</v>
@@ -4734,7 +4740,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>64</v>
@@ -4749,10 +4755,10 @@
         <v>65</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>24</v>
@@ -4763,10 +4769,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>63</v>
@@ -4778,10 +4784,10 @@
         <v>71</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>24</v>
@@ -4842,7 +4848,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -4857,10 +4863,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>24</v>
@@ -4871,7 +4877,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -4886,10 +4892,10 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>24</v>
@@ -4900,7 +4906,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -4915,10 +4921,10 @@
         <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>24</v>
@@ -4929,10 +4935,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -4944,10 +4950,10 @@
         <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>24</v>
@@ -4971,7 +4977,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5010,7 +5016,7 @@
     <row r="2" spans="1:12">
       <c r="A2" s="31"/>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
@@ -5022,10 +5028,10 @@
         <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
